--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="763">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -615,6 +615,9 @@
     <t>Move Last Element to Front of a Linked List</t>
   </si>
   <si>
+    <t>Play with pointers and all set.</t>
+  </si>
+  <si>
     <t>Nth node from end of linked list</t>
   </si>
   <si>
@@ -622,6 +625,9 @@
   </si>
   <si>
     <t>Reverse a linked list</t>
+  </si>
+  <si>
+    <t>3 pointer Approach, At the end prev pointer will point to new head</t>
   </si>
   <si>
     <t>Remove duplicate element from sorted Linked List</t>
@@ -2341,7 +2347,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2462,6 +2468,21 @@
       <color rgb="FF4183C4"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2982,28 +3003,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3012,122 +3024,131 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3166,19 +3187,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3406,17 +3429,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="3">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{42F48C66-0C98-47C6-8BAE-F8BD105E9542}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{61F22BC6-192B-4654-B295-0C7108644BF5}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{1E418651-8636-443A-B963-EEF5EF803020}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{9472E431-FC7B-4D34-B59D-52B8A1D85FD2}">
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 3" pivot="0" count="3" xr9:uid="{64C36A05-B3DC-464E-A62E-80DCB2A18C7F}">
+    <tableStyle name="Sheet1-style 3" pivot="0" count="3" xr9:uid="{6A068777-9B32-4E4F-AF28-37A501A24AEA}">
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
@@ -3670,8 +3693,8 @@
   </sheetPr>
   <dimension ref="A1:G747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="B531" sqref="B531"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -6550,11 +6573,11 @@
       <c r="F170" t="s">
         <v>172</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:5">
+    <row r="171" customHeight="1" spans="1:7">
       <c r="A171" s="22" t="s">
         <v>170</v>
       </c>
@@ -6569,6 +6592,12 @@
       </c>
       <c r="E171" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="F171" t="s">
+        <v>172</v>
+      </c>
+      <c r="G171" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
@@ -6576,7 +6605,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>16</v>
@@ -6593,7 +6622,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>16</v>
@@ -6607,16 +6636,16 @@
       <c r="F173" t="s">
         <v>172</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:5">
+    <row r="174" customHeight="1" spans="1:7">
       <c r="A174" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>16</v>
@@ -6626,6 +6655,12 @@
       </c>
       <c r="E174" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="F174" t="s">
+        <v>172</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:5">
@@ -6633,7 +6668,7 @@
         <v>170</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>16</v>
@@ -6650,7 +6685,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>16</v>
@@ -6667,7 +6702,7 @@
         <v>170</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>16</v>
@@ -6684,7 +6719,7 @@
         <v>170</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>16</v>
@@ -6701,7 +6736,7 @@
         <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>16</v>
@@ -6713,12 +6748,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:5">
+    <row r="180" customHeight="1" spans="1:7">
       <c r="A180" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>16</v>
@@ -6728,6 +6763,9 @@
       </c>
       <c r="E180" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:5">
@@ -6735,7 +6773,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>16</v>
@@ -6752,7 +6790,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>16</v>
@@ -6769,7 +6807,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>16</v>
@@ -6786,7 +6824,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>16</v>
@@ -6803,7 +6841,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>16</v>
@@ -6820,7 +6858,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>16</v>
@@ -6837,7 +6875,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>16</v>
@@ -6854,7 +6892,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>16</v>
@@ -6871,7 +6909,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>16</v>
@@ -6888,7 +6926,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>40</v>
@@ -6905,7 +6943,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>40</v>
@@ -6922,7 +6960,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>40</v>
@@ -6939,7 +6977,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>40</v>
@@ -6956,7 +6994,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>40</v>
@@ -6973,7 +7011,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>40</v>
@@ -6990,7 +7028,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>40</v>
@@ -7007,7 +7045,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>40</v>
@@ -7024,7 +7062,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>40</v>
@@ -7041,7 +7079,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>40</v>
@@ -7058,7 +7096,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>40</v>
@@ -7075,7 +7113,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>40</v>
@@ -7092,7 +7130,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>40</v>
@@ -7109,7 +7147,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>40</v>
@@ -7126,7 +7164,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>40</v>
@@ -7143,7 +7181,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>40</v>
@@ -7160,7 +7198,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>40</v>
@@ -7177,7 +7215,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>40</v>
@@ -7194,7 +7232,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>40</v>
@@ -7211,7 +7249,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>40</v>
@@ -7228,7 +7266,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>57</v>
@@ -7245,7 +7283,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>57</v>
@@ -7262,7 +7300,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>57</v>
@@ -7279,7 +7317,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>57</v>
@@ -7296,7 +7334,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>57</v>
@@ -7313,7 +7351,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>57</v>
@@ -7330,7 +7368,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>57</v>
@@ -7351,10 +7389,10 @@
     </row>
     <row r="218" customHeight="1" spans="1:5">
       <c r="A218" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>16</v>
@@ -7368,10 +7406,10 @@
     </row>
     <row r="219" customHeight="1" spans="1:5">
       <c r="A219" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>16</v>
@@ -7385,10 +7423,10 @@
     </row>
     <row r="220" customHeight="1" spans="1:5">
       <c r="A220" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>16</v>
@@ -7402,10 +7440,10 @@
     </row>
     <row r="221" customHeight="1" spans="1:5">
       <c r="A221" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>16</v>
@@ -7419,10 +7457,10 @@
     </row>
     <row r="222" customHeight="1" spans="1:5">
       <c r="A222" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>16</v>
@@ -7436,10 +7474,10 @@
     </row>
     <row r="223" customHeight="1" spans="1:5">
       <c r="A223" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>16</v>
@@ -7453,10 +7491,10 @@
     </row>
     <row r="224" customHeight="1" spans="1:5">
       <c r="A224" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>16</v>
@@ -7470,10 +7508,10 @@
     </row>
     <row r="225" customHeight="1" spans="1:5">
       <c r="A225" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>16</v>
@@ -7487,10 +7525,10 @@
     </row>
     <row r="226" customHeight="1" spans="1:5">
       <c r="A226" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>16</v>
@@ -7504,10 +7542,10 @@
     </row>
     <row r="227" customHeight="1" spans="1:5">
       <c r="A227" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>16</v>
@@ -7521,10 +7559,10 @@
     </row>
     <row r="228" customHeight="1" spans="1:5">
       <c r="A228" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>16</v>
@@ -7538,10 +7576,10 @@
     </row>
     <row r="229" customHeight="1" spans="1:5">
       <c r="A229" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>16</v>
@@ -7555,10 +7593,10 @@
     </row>
     <row r="230" customHeight="1" spans="1:5">
       <c r="A230" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>16</v>
@@ -7572,10 +7610,10 @@
     </row>
     <row r="231" customHeight="1" spans="1:5">
       <c r="A231" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>16</v>
@@ -7589,10 +7627,10 @@
     </row>
     <row r="232" customHeight="1" spans="1:5">
       <c r="A232" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>16</v>
@@ -7606,10 +7644,10 @@
     </row>
     <row r="233" customHeight="1" spans="1:5">
       <c r="A233" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>40</v>
@@ -7623,10 +7661,10 @@
     </row>
     <row r="234" customHeight="1" spans="1:5">
       <c r="A234" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>40</v>
@@ -7640,10 +7678,10 @@
     </row>
     <row r="235" customHeight="1" spans="1:5">
       <c r="A235" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>40</v>
@@ -7657,10 +7695,10 @@
     </row>
     <row r="236" customHeight="1" spans="1:5">
       <c r="A236" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>40</v>
@@ -7674,10 +7712,10 @@
     </row>
     <row r="237" customHeight="1" spans="1:5">
       <c r="A237" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>40</v>
@@ -7691,10 +7729,10 @@
     </row>
     <row r="238" customHeight="1" spans="1:5">
       <c r="A238" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>40</v>
@@ -7708,10 +7746,10 @@
     </row>
     <row r="239" customHeight="1" spans="1:5">
       <c r="A239" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>40</v>
@@ -7725,10 +7763,10 @@
     </row>
     <row r="240" customHeight="1" spans="1:5">
       <c r="A240" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>40</v>
@@ -7742,10 +7780,10 @@
     </row>
     <row r="241" customHeight="1" spans="1:5">
       <c r="A241" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>40</v>
@@ -7759,10 +7797,10 @@
     </row>
     <row r="242" customHeight="1" spans="1:5">
       <c r="A242" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>40</v>
@@ -7776,10 +7814,10 @@
     </row>
     <row r="243" customHeight="1" spans="1:5">
       <c r="A243" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>40</v>
@@ -7793,10 +7831,10 @@
     </row>
     <row r="244" customHeight="1" spans="1:5">
       <c r="A244" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>40</v>
@@ -7810,10 +7848,10 @@
     </row>
     <row r="245" customHeight="1" spans="1:5">
       <c r="A245" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>40</v>
@@ -7827,10 +7865,10 @@
     </row>
     <row r="246" customHeight="1" spans="1:5">
       <c r="A246" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B246" s="24" t="s">
-        <v>263</v>
+        <v>236</v>
+      </c>
+      <c r="B246" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>40</v>
@@ -7844,10 +7882,10 @@
     </row>
     <row r="247" customHeight="1" spans="1:5">
       <c r="A247" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>57</v>
@@ -7861,10 +7899,10 @@
     </row>
     <row r="248" customHeight="1" spans="1:5">
       <c r="A248" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>57</v>
@@ -7878,10 +7916,10 @@
     </row>
     <row r="249" customHeight="1" spans="1:5">
       <c r="A249" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>57</v>
@@ -7895,10 +7933,10 @@
     </row>
     <row r="250" customHeight="1" spans="1:5">
       <c r="A250" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>57</v>
@@ -7912,10 +7950,10 @@
     </row>
     <row r="251" customHeight="1" spans="1:5">
       <c r="A251" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>57</v>
@@ -7929,10 +7967,10 @@
     </row>
     <row r="252" customHeight="1" spans="1:5">
       <c r="A252" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>57</v>
@@ -7946,10 +7984,10 @@
     </row>
     <row r="253" customHeight="1" spans="1:5">
       <c r="A253" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B253" s="25" t="s">
-        <v>270</v>
+        <v>236</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>57</v>
@@ -7963,10 +8001,10 @@
     </row>
     <row r="254" customHeight="1" spans="1:5">
       <c r="A254" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>57</v>
@@ -7980,10 +8018,10 @@
     </row>
     <row r="255" customHeight="1" spans="1:5">
       <c r="A255" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>57</v>
@@ -7997,10 +8035,10 @@
     </row>
     <row r="256" customHeight="1" spans="1:5">
       <c r="A256" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B256" s="24" t="s">
-        <v>273</v>
+        <v>236</v>
+      </c>
+      <c r="B256" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>57</v>
@@ -8021,10 +8059,10 @@
     </row>
     <row r="258" customHeight="1" spans="1:5">
       <c r="A258" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>16</v>
@@ -8038,10 +8076,10 @@
     </row>
     <row r="259" customHeight="1" spans="1:5">
       <c r="A259" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>16</v>
@@ -8055,10 +8093,10 @@
     </row>
     <row r="260" customHeight="1" spans="1:5">
       <c r="A260" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>16</v>
@@ -8072,10 +8110,10 @@
     </row>
     <row r="261" customHeight="1" spans="1:5">
       <c r="A261" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>16</v>
@@ -8089,10 +8127,10 @@
     </row>
     <row r="262" customHeight="1" spans="1:5">
       <c r="A262" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>16</v>
@@ -8106,10 +8144,10 @@
     </row>
     <row r="263" customHeight="1" spans="1:5">
       <c r="A263" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>16</v>
@@ -8123,10 +8161,10 @@
     </row>
     <row r="264" customHeight="1" spans="1:5">
       <c r="A264" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>16</v>
@@ -8140,10 +8178,10 @@
     </row>
     <row r="265" customHeight="1" spans="1:5">
       <c r="A265" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>16</v>
@@ -8157,10 +8195,10 @@
     </row>
     <row r="266" customHeight="1" spans="1:5">
       <c r="A266" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>16</v>
@@ -8174,10 +8212,10 @@
     </row>
     <row r="267" customHeight="1" spans="1:5">
       <c r="A267" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>16</v>
@@ -8191,10 +8229,10 @@
     </row>
     <row r="268" customHeight="1" spans="1:5">
       <c r="A268" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>16</v>
@@ -8208,10 +8246,10 @@
     </row>
     <row r="269" customHeight="1" spans="1:5">
       <c r="A269" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>16</v>
@@ -8225,10 +8263,10 @@
     </row>
     <row r="270" customHeight="1" spans="1:5">
       <c r="A270" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>16</v>
@@ -8242,10 +8280,10 @@
     </row>
     <row r="271" customHeight="1" spans="1:5">
       <c r="A271" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>40</v>
@@ -8259,10 +8297,10 @@
     </row>
     <row r="272" customHeight="1" spans="1:5">
       <c r="A272" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>40</v>
@@ -8276,10 +8314,10 @@
     </row>
     <row r="273" customHeight="1" spans="1:5">
       <c r="A273" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>40</v>
@@ -8293,10 +8331,10 @@
     </row>
     <row r="274" customHeight="1" spans="1:5">
       <c r="A274" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>40</v>
@@ -8310,10 +8348,10 @@
     </row>
     <row r="275" customHeight="1" spans="1:5">
       <c r="A275" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>40</v>
@@ -8327,10 +8365,10 @@
     </row>
     <row r="276" customHeight="1" spans="1:5">
       <c r="A276" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>40</v>
@@ -8344,10 +8382,10 @@
     </row>
     <row r="277" customHeight="1" spans="1:5">
       <c r="A277" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>40</v>
@@ -8361,10 +8399,10 @@
     </row>
     <row r="278" customHeight="1" spans="1:5">
       <c r="A278" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>40</v>
@@ -8378,10 +8416,10 @@
     </row>
     <row r="279" customHeight="1" spans="1:5">
       <c r="A279" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B279" s="25" t="s">
-        <v>296</v>
+        <v>276</v>
+      </c>
+      <c r="B279" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>57</v>
@@ -8395,10 +8433,10 @@
     </row>
     <row r="280" customHeight="1" spans="1:5">
       <c r="A280" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>57</v>
@@ -8412,10 +8450,10 @@
     </row>
     <row r="281" customHeight="1" spans="1:5">
       <c r="A281" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>57</v>
@@ -8436,10 +8474,10 @@
     </row>
     <row r="283" customHeight="1" spans="1:6">
       <c r="A283" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>16</v>
@@ -8456,10 +8494,10 @@
     </row>
     <row r="284" customHeight="1" spans="1:6">
       <c r="A284" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>16</v>
@@ -8476,10 +8514,10 @@
     </row>
     <row r="285" customHeight="1" spans="1:6">
       <c r="A285" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>16</v>
@@ -8496,10 +8534,10 @@
     </row>
     <row r="286" customHeight="1" spans="1:6">
       <c r="A286" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>16</v>
@@ -8516,10 +8554,10 @@
     </row>
     <row r="287" customHeight="1" spans="1:6">
       <c r="A287" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>16</v>
@@ -8536,10 +8574,10 @@
     </row>
     <row r="288" customHeight="1" spans="1:5">
       <c r="A288" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>16</v>
@@ -8553,10 +8591,10 @@
     </row>
     <row r="289" customHeight="1" spans="1:6">
       <c r="A289" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>16</v>
@@ -8573,10 +8611,10 @@
     </row>
     <row r="290" customHeight="1" spans="1:5">
       <c r="A290" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>16</v>
@@ -8590,10 +8628,10 @@
     </row>
     <row r="291" customHeight="1" spans="1:5">
       <c r="A291" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>16</v>
@@ -8607,10 +8645,10 @@
     </row>
     <row r="292" customHeight="1" spans="1:6">
       <c r="A292" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>16</v>
@@ -8627,10 +8665,10 @@
     </row>
     <row r="293" customHeight="1" spans="1:5">
       <c r="A293" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>16</v>
@@ -8644,10 +8682,10 @@
     </row>
     <row r="294" customHeight="1" spans="1:6">
       <c r="A294" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>16</v>
@@ -8664,10 +8702,10 @@
     </row>
     <row r="295" customHeight="1" spans="1:6">
       <c r="A295" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>16</v>
@@ -8684,10 +8722,10 @@
     </row>
     <row r="296" customHeight="1" spans="1:5">
       <c r="A296" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>16</v>
@@ -8701,10 +8739,10 @@
     </row>
     <row r="297" customHeight="1" spans="1:5">
       <c r="A297" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>16</v>
@@ -8718,10 +8756,10 @@
     </row>
     <row r="298" customHeight="1" spans="1:5">
       <c r="A298" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>16</v>
@@ -8735,10 +8773,10 @@
     </row>
     <row r="299" customHeight="1" spans="1:5">
       <c r="A299" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>16</v>
@@ -8752,10 +8790,10 @@
     </row>
     <row r="300" customHeight="1" spans="1:5">
       <c r="A300" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>16</v>
@@ -8769,10 +8807,10 @@
     </row>
     <row r="301" customHeight="1" spans="1:5">
       <c r="A301" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>16</v>
@@ -8786,10 +8824,10 @@
     </row>
     <row r="302" customHeight="1" spans="1:5">
       <c r="A302" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>16</v>
@@ -8803,10 +8841,10 @@
     </row>
     <row r="303" customHeight="1" spans="1:5">
       <c r="A303" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>16</v>
@@ -8820,10 +8858,10 @@
     </row>
     <row r="304" customHeight="1" spans="1:5">
       <c r="A304" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>16</v>
@@ -8837,10 +8875,10 @@
     </row>
     <row r="305" customHeight="1" spans="1:5">
       <c r="A305" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>16</v>
@@ -8854,10 +8892,10 @@
     </row>
     <row r="306" customHeight="1" spans="1:5">
       <c r="A306" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>16</v>
@@ -8871,10 +8909,10 @@
     </row>
     <row r="307" customHeight="1" spans="1:5">
       <c r="A307" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>16</v>
@@ -8888,10 +8926,10 @@
     </row>
     <row r="308" customHeight="1" spans="1:5">
       <c r="A308" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>16</v>
@@ -8905,10 +8943,10 @@
     </row>
     <row r="309" customHeight="1" spans="1:5">
       <c r="A309" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>16</v>
@@ -8922,10 +8960,10 @@
     </row>
     <row r="310" customHeight="1" spans="1:5">
       <c r="A310" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>40</v>
@@ -8939,10 +8977,10 @@
     </row>
     <row r="311" customHeight="1" spans="1:5">
       <c r="A311" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>40</v>
@@ -8956,10 +8994,10 @@
     </row>
     <row r="312" customHeight="1" spans="1:5">
       <c r="A312" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>40</v>
@@ -8973,10 +9011,10 @@
     </row>
     <row r="313" customHeight="1" spans="1:5">
       <c r="A313" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>40</v>
@@ -8990,10 +9028,10 @@
     </row>
     <row r="314" customHeight="1" spans="1:5">
       <c r="A314" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>40</v>
@@ -9007,10 +9045,10 @@
     </row>
     <row r="315" customHeight="1" spans="1:5">
       <c r="A315" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>40</v>
@@ -9024,10 +9062,10 @@
     </row>
     <row r="316" customHeight="1" spans="1:5">
       <c r="A316" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>40</v>
@@ -9041,10 +9079,10 @@
     </row>
     <row r="317" customHeight="1" spans="1:5">
       <c r="A317" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>40</v>
@@ -9058,10 +9096,10 @@
     </row>
     <row r="318" customHeight="1" spans="1:5">
       <c r="A318" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>40</v>
@@ -9075,10 +9113,10 @@
     </row>
     <row r="319" customHeight="1" spans="1:5">
       <c r="A319" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>40</v>
@@ -9092,10 +9130,10 @@
     </row>
     <row r="320" customHeight="1" spans="1:5">
       <c r="A320" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>40</v>
@@ -9109,10 +9147,10 @@
     </row>
     <row r="321" customHeight="1" spans="1:5">
       <c r="A321" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>40</v>
@@ -9126,10 +9164,10 @@
     </row>
     <row r="322" customHeight="1" spans="1:5">
       <c r="A322" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>40</v>
@@ -9143,10 +9181,10 @@
     </row>
     <row r="323" customHeight="1" spans="1:5">
       <c r="A323" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>40</v>
@@ -9160,10 +9198,10 @@
     </row>
     <row r="324" customHeight="1" spans="1:5">
       <c r="A324" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>40</v>
@@ -9177,10 +9215,10 @@
     </row>
     <row r="325" customHeight="1" spans="1:5">
       <c r="A325" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>40</v>
@@ -9194,10 +9232,10 @@
     </row>
     <row r="326" customHeight="1" spans="1:5">
       <c r="A326" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>40</v>
@@ -9211,10 +9249,10 @@
     </row>
     <row r="327" customHeight="1" spans="1:5">
       <c r="A327" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>40</v>
@@ -9228,10 +9266,10 @@
     </row>
     <row r="328" customHeight="1" spans="1:5">
       <c r="A328" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>40</v>
@@ -9245,10 +9283,10 @@
     </row>
     <row r="329" customHeight="1" spans="1:5">
       <c r="A329" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>40</v>
@@ -9262,10 +9300,10 @@
     </row>
     <row r="330" customHeight="1" spans="1:5">
       <c r="A330" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>40</v>
@@ -9279,10 +9317,10 @@
     </row>
     <row r="331" customHeight="1" spans="1:5">
       <c r="A331" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>40</v>
@@ -9296,10 +9334,10 @@
     </row>
     <row r="332" customHeight="1" spans="1:5">
       <c r="A332" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>40</v>
@@ -9313,10 +9351,10 @@
     </row>
     <row r="333" customHeight="1" spans="1:5">
       <c r="A333" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>40</v>
@@ -9330,10 +9368,10 @@
     </row>
     <row r="334" customHeight="1" spans="1:5">
       <c r="A334" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>57</v>
@@ -9347,10 +9385,10 @@
     </row>
     <row r="335" customHeight="1" spans="1:5">
       <c r="A335" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>57</v>
@@ -9364,10 +9402,10 @@
     </row>
     <row r="336" customHeight="1" spans="1:5">
       <c r="A336" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>57</v>
@@ -9381,10 +9419,10 @@
     </row>
     <row r="337" customHeight="1" spans="1:5">
       <c r="A337" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>57</v>
@@ -9398,10 +9436,10 @@
     </row>
     <row r="338" customHeight="1" spans="1:5">
       <c r="A338" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>57</v>
@@ -9415,10 +9453,10 @@
     </row>
     <row r="339" customHeight="1" spans="1:5">
       <c r="A339" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>57</v>
@@ -9432,10 +9470,10 @@
     </row>
     <row r="340" customHeight="1" spans="1:5">
       <c r="A340" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>57</v>
@@ -9449,10 +9487,10 @@
     </row>
     <row r="341" customHeight="1" spans="1:5">
       <c r="A341" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>57</v>
@@ -9466,10 +9504,10 @@
     </row>
     <row r="342" customHeight="1" spans="1:5">
       <c r="A342" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>57</v>
@@ -9489,10 +9527,10 @@
     </row>
     <row r="344" customHeight="1" spans="1:5">
       <c r="A344" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>16</v>
@@ -9506,10 +9544,10 @@
     </row>
     <row r="345" customHeight="1" spans="1:5">
       <c r="A345" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>16</v>
@@ -9523,10 +9561,10 @@
     </row>
     <row r="346" customHeight="1" spans="1:5">
       <c r="A346" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>16</v>
@@ -9540,10 +9578,10 @@
     </row>
     <row r="347" customHeight="1" spans="1:5">
       <c r="A347" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>16</v>
@@ -9557,10 +9595,10 @@
     </row>
     <row r="348" customHeight="1" spans="1:5">
       <c r="A348" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>16</v>
@@ -9574,10 +9612,10 @@
     </row>
     <row r="349" customHeight="1" spans="1:5">
       <c r="A349" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>16</v>
@@ -9591,10 +9629,10 @@
     </row>
     <row r="350" customHeight="1" spans="1:5">
       <c r="A350" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>16</v>
@@ -9608,10 +9646,10 @@
     </row>
     <row r="351" customHeight="1" spans="1:5">
       <c r="A351" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>16</v>
@@ -9625,10 +9663,10 @@
     </row>
     <row r="352" customHeight="1" spans="1:5">
       <c r="A352" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>16</v>
@@ -9642,10 +9680,10 @@
     </row>
     <row r="353" customHeight="1" spans="1:5">
       <c r="A353" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>16</v>
@@ -9659,10 +9697,10 @@
     </row>
     <row r="354" customHeight="1" spans="1:5">
       <c r="A354" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B354" s="16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>16</v>
@@ -9676,10 +9714,10 @@
     </row>
     <row r="355" customHeight="1" spans="1:5">
       <c r="A355" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>16</v>
@@ -9693,10 +9731,10 @@
     </row>
     <row r="356" customHeight="1" spans="1:5">
       <c r="A356" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>16</v>
@@ -9710,10 +9748,10 @@
     </row>
     <row r="357" customHeight="1" spans="1:5">
       <c r="A357" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>16</v>
@@ -9727,10 +9765,10 @@
     </row>
     <row r="358" customHeight="1" spans="1:5">
       <c r="A358" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>16</v>
@@ -9744,10 +9782,10 @@
     </row>
     <row r="359" customHeight="1" spans="1:5">
       <c r="A359" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>16</v>
@@ -9761,10 +9799,10 @@
     </row>
     <row r="360" customHeight="1" spans="1:5">
       <c r="A360" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>16</v>
@@ -9778,10 +9816,10 @@
     </row>
     <row r="361" customHeight="1" spans="1:5">
       <c r="A361" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>16</v>
@@ -9795,10 +9833,10 @@
     </row>
     <row r="362" customHeight="1" spans="1:5">
       <c r="A362" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>16</v>
@@ -9812,10 +9850,10 @@
     </row>
     <row r="363" customHeight="1" spans="1:5">
       <c r="A363" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>16</v>
@@ -9829,10 +9867,10 @@
     </row>
     <row r="364" customHeight="1" spans="1:5">
       <c r="A364" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>16</v>
@@ -9846,10 +9884,10 @@
     </row>
     <row r="365" customHeight="1" spans="1:5">
       <c r="A365" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>40</v>
@@ -9863,10 +9901,10 @@
     </row>
     <row r="366" customHeight="1" spans="1:5">
       <c r="A366" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>40</v>
@@ -9880,10 +9918,10 @@
     </row>
     <row r="367" customHeight="1" spans="1:5">
       <c r="A367" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>40</v>
@@ -9897,10 +9935,10 @@
     </row>
     <row r="368" customHeight="1" spans="1:5">
       <c r="A368" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>40</v>
@@ -9914,10 +9952,10 @@
     </row>
     <row r="369" customHeight="1" spans="1:5">
       <c r="A369" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>40</v>
@@ -9931,10 +9969,10 @@
     </row>
     <row r="370" customHeight="1" spans="1:5">
       <c r="A370" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>40</v>
@@ -9948,10 +9986,10 @@
     </row>
     <row r="371" customHeight="1" spans="1:5">
       <c r="A371" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>40</v>
@@ -9965,10 +10003,10 @@
     </row>
     <row r="372" customHeight="1" spans="1:5">
       <c r="A372" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>40</v>
@@ -9982,10 +10020,10 @@
     </row>
     <row r="373" customHeight="1" spans="1:5">
       <c r="A373" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>40</v>
@@ -9999,10 +10037,10 @@
     </row>
     <row r="374" customHeight="1" spans="1:5">
       <c r="A374" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>40</v>
@@ -10016,10 +10054,10 @@
     </row>
     <row r="375" customHeight="1" spans="1:5">
       <c r="A375" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>40</v>
@@ -10033,10 +10071,10 @@
     </row>
     <row r="376" customHeight="1" spans="1:5">
       <c r="A376" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>40</v>
@@ -10050,10 +10088,10 @@
     </row>
     <row r="377" customHeight="1" spans="1:5">
       <c r="A377" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>40</v>
@@ -10067,10 +10105,10 @@
     </row>
     <row r="378" customHeight="1" spans="1:5">
       <c r="A378" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>40</v>
@@ -10084,10 +10122,10 @@
     </row>
     <row r="379" customHeight="1" spans="1:5">
       <c r="A379" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>40</v>
@@ -10101,10 +10139,10 @@
     </row>
     <row r="380" customHeight="1" spans="1:5">
       <c r="A380" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>40</v>
@@ -10118,10 +10156,10 @@
     </row>
     <row r="381" customHeight="1" spans="1:5">
       <c r="A381" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>40</v>
@@ -10135,10 +10173,10 @@
     </row>
     <row r="382" customHeight="1" spans="1:5">
       <c r="A382" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>40</v>
@@ -10152,10 +10190,10 @@
     </row>
     <row r="383" customHeight="1" spans="1:5">
       <c r="A383" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>57</v>
@@ -10169,10 +10207,10 @@
     </row>
     <row r="384" customHeight="1" spans="1:5">
       <c r="A384" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>57</v>
@@ -10186,10 +10224,10 @@
     </row>
     <row r="385" customHeight="1" spans="1:5">
       <c r="A385" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>57</v>
@@ -10203,10 +10241,10 @@
     </row>
     <row r="386" customHeight="1" spans="1:5">
       <c r="A386" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>57</v>
@@ -10220,10 +10258,10 @@
     </row>
     <row r="387" customHeight="1" spans="1:5">
       <c r="A387" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>57</v>
@@ -10236,17 +10274,17 @@
       </c>
     </row>
     <row r="388" customHeight="1" spans="1:5">
-      <c r="A388" s="26"/>
+      <c r="A388" s="28"/>
       <c r="B388" s="18"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
     </row>
     <row r="389" customHeight="1" spans="1:5">
       <c r="A389" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B389" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
+      </c>
+      <c r="B389" s="29" t="s">
+        <v>408</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>16</v>
@@ -10260,10 +10298,10 @@
     </row>
     <row r="390" customHeight="1" spans="1:5">
       <c r="A390" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>16</v>
@@ -10277,10 +10315,10 @@
     </row>
     <row r="391" customHeight="1" spans="1:5">
       <c r="A391" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>16</v>
@@ -10294,10 +10332,10 @@
     </row>
     <row r="392" customHeight="1" spans="1:5">
       <c r="A392" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>16</v>
@@ -10311,10 +10349,10 @@
     </row>
     <row r="393" customHeight="1" spans="1:5">
       <c r="A393" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>16</v>
@@ -10328,10 +10366,10 @@
     </row>
     <row r="394" customHeight="1" spans="1:5">
       <c r="A394" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>16</v>
@@ -10345,10 +10383,10 @@
     </row>
     <row r="395" customHeight="1" spans="1:5">
       <c r="A395" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>16</v>
@@ -10362,10 +10400,10 @@
     </row>
     <row r="396" customHeight="1" spans="1:5">
       <c r="A396" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B396" s="25" t="s">
-        <v>413</v>
+        <v>407</v>
+      </c>
+      <c r="B396" s="27" t="s">
+        <v>415</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>16</v>
@@ -10379,10 +10417,10 @@
     </row>
     <row r="397" customHeight="1" spans="1:5">
       <c r="A397" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B397" s="25" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+      <c r="B397" s="27" t="s">
+        <v>416</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>16</v>
@@ -10396,10 +10434,10 @@
     </row>
     <row r="398" customHeight="1" spans="1:5">
       <c r="A398" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>16</v>
@@ -10413,10 +10451,10 @@
     </row>
     <row r="399" customHeight="1" spans="1:5">
       <c r="A399" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>16</v>
@@ -10430,10 +10468,10 @@
     </row>
     <row r="400" customHeight="1" spans="1:5">
       <c r="A400" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>16</v>
@@ -10447,10 +10485,10 @@
     </row>
     <row r="401" customHeight="1" spans="1:5">
       <c r="A401" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>16</v>
@@ -10464,10 +10502,10 @@
     </row>
     <row r="402" customHeight="1" spans="1:5">
       <c r="A402" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>16</v>
@@ -10481,10 +10519,10 @@
     </row>
     <row r="403" customHeight="1" spans="1:5">
       <c r="A403" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>16</v>
@@ -10498,10 +10536,10 @@
     </row>
     <row r="404" customHeight="1" spans="1:5">
       <c r="A404" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>16</v>
@@ -10515,10 +10553,10 @@
     </row>
     <row r="405" customHeight="1" spans="1:5">
       <c r="A405" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>40</v>
@@ -10532,10 +10570,10 @@
     </row>
     <row r="406" customHeight="1" spans="1:5">
       <c r="A406" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>40</v>
@@ -10549,10 +10587,10 @@
     </row>
     <row r="407" customHeight="1" spans="1:5">
       <c r="A407" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>40</v>
@@ -10566,10 +10604,10 @@
     </row>
     <row r="408" customHeight="1" spans="1:5">
       <c r="A408" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>40</v>
@@ -10583,10 +10621,10 @@
     </row>
     <row r="409" customHeight="1" spans="1:5">
       <c r="A409" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>40</v>
@@ -10600,10 +10638,10 @@
     </row>
     <row r="410" customHeight="1" spans="1:5">
       <c r="A410" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>40</v>
@@ -10617,10 +10655,10 @@
     </row>
     <row r="411" customHeight="1" spans="1:5">
       <c r="A411" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>40</v>
@@ -10634,10 +10672,10 @@
     </row>
     <row r="412" customHeight="1" spans="1:5">
       <c r="A412" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>40</v>
@@ -10651,10 +10689,10 @@
     </row>
     <row r="413" customHeight="1" spans="1:5">
       <c r="A413" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>40</v>
@@ -10668,10 +10706,10 @@
     </row>
     <row r="414" customHeight="1" spans="1:5">
       <c r="A414" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>40</v>
@@ -10685,10 +10723,10 @@
     </row>
     <row r="415" customHeight="1" spans="1:5">
       <c r="A415" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>40</v>
@@ -10702,10 +10740,10 @@
     </row>
     <row r="416" customHeight="1" spans="1:5">
       <c r="A416" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>40</v>
@@ -10719,10 +10757,10 @@
     </row>
     <row r="417" customHeight="1" spans="1:5">
       <c r="A417" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>57</v>
@@ -10736,10 +10774,10 @@
     </row>
     <row r="418" customHeight="1" spans="1:5">
       <c r="A418" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>57</v>
@@ -10753,10 +10791,10 @@
     </row>
     <row r="419" customHeight="1" spans="1:5">
       <c r="A419" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>57</v>
@@ -10770,10 +10808,10 @@
     </row>
     <row r="420" customHeight="1" spans="1:5">
       <c r="A420" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>57</v>
@@ -10787,10 +10825,10 @@
     </row>
     <row r="421" customHeight="1" spans="1:5">
       <c r="A421" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>57</v>
@@ -10804,10 +10842,10 @@
     </row>
     <row r="422" customHeight="1" spans="1:5">
       <c r="A422" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>57</v>
@@ -10821,10 +10859,10 @@
     </row>
     <row r="423" customHeight="1" spans="1:5">
       <c r="A423" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B423" s="25" t="s">
-        <v>440</v>
+        <v>407</v>
+      </c>
+      <c r="B423" s="27" t="s">
+        <v>442</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>57</v>
@@ -10838,10 +10876,10 @@
     </row>
     <row r="424" customHeight="1" spans="1:5">
       <c r="A424" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>57</v>
@@ -10854,17 +10892,17 @@
       </c>
     </row>
     <row r="425" customHeight="1" spans="1:5">
-      <c r="A425" s="26"/>
+      <c r="A425" s="28"/>
       <c r="B425" s="18"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
     </row>
     <row r="426" customHeight="1" spans="1:5">
       <c r="A426" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>16</v>
@@ -10878,10 +10916,10 @@
     </row>
     <row r="427" customHeight="1" spans="1:5">
       <c r="A427" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>16</v>
@@ -10895,10 +10933,10 @@
     </row>
     <row r="428" customHeight="1" spans="1:5">
       <c r="A428" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>16</v>
@@ -10912,7 +10950,7 @@
     </row>
     <row r="429" customHeight="1" spans="1:5">
       <c r="A429" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B429" s="16" t="s">
         <v>55</v>
@@ -10929,10 +10967,10 @@
     </row>
     <row r="430" customHeight="1" spans="1:5">
       <c r="A430" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>16</v>
@@ -10946,10 +10984,10 @@
     </row>
     <row r="431" customHeight="1" spans="1:5">
       <c r="A431" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>16</v>
@@ -10963,10 +11001,10 @@
     </row>
     <row r="432" customHeight="1" spans="1:5">
       <c r="A432" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>16</v>
@@ -10980,10 +11018,10 @@
     </row>
     <row r="433" customHeight="1" spans="1:5">
       <c r="A433" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>16</v>
@@ -10997,10 +11035,10 @@
     </row>
     <row r="434" customHeight="1" spans="1:5">
       <c r="A434" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>16</v>
@@ -11014,10 +11052,10 @@
     </row>
     <row r="435" customHeight="1" spans="1:5">
       <c r="A435" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>16</v>
@@ -11031,10 +11069,10 @@
     </row>
     <row r="436" customHeight="1" spans="1:5">
       <c r="A436" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>16</v>
@@ -11048,10 +11086,10 @@
     </row>
     <row r="437" customHeight="1" spans="1:5">
       <c r="A437" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>16</v>
@@ -11065,10 +11103,10 @@
     </row>
     <row r="438" customHeight="1" spans="1:5">
       <c r="A438" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>16</v>
@@ -11082,10 +11120,10 @@
     </row>
     <row r="439" customHeight="1" spans="1:5">
       <c r="A439" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>16</v>
@@ -11099,10 +11137,10 @@
     </row>
     <row r="440" customHeight="1" spans="1:5">
       <c r="A440" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>16</v>
@@ -11116,10 +11154,10 @@
     </row>
     <row r="441" customHeight="1" spans="1:5">
       <c r="A441" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>16</v>
@@ -11133,10 +11171,10 @@
     </row>
     <row r="442" customHeight="1" spans="1:5">
       <c r="A442" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>16</v>
@@ -11150,10 +11188,10 @@
     </row>
     <row r="443" customHeight="1" spans="1:5">
       <c r="A443" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>40</v>
@@ -11167,10 +11205,10 @@
     </row>
     <row r="444" customHeight="1" spans="1:5">
       <c r="A444" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>40</v>
@@ -11184,10 +11222,10 @@
     </row>
     <row r="445" customHeight="1" spans="1:5">
       <c r="A445" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>40</v>
@@ -11201,7 +11239,7 @@
     </row>
     <row r="446" customHeight="1" spans="1:5">
       <c r="A446" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>55</v>
@@ -11218,10 +11256,10 @@
     </row>
     <row r="447" customHeight="1" spans="1:5">
       <c r="A447" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>40</v>
@@ -11235,10 +11273,10 @@
     </row>
     <row r="448" customHeight="1" spans="1:5">
       <c r="A448" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>40</v>
@@ -11252,10 +11290,10 @@
     </row>
     <row r="449" customHeight="1" spans="1:5">
       <c r="A449" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>40</v>
@@ -11269,10 +11307,10 @@
     </row>
     <row r="450" customHeight="1" spans="1:5">
       <c r="A450" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>40</v>
@@ -11286,10 +11324,10 @@
     </row>
     <row r="451" customHeight="1" spans="1:5">
       <c r="A451" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>40</v>
@@ -11303,10 +11341,10 @@
     </row>
     <row r="452" customHeight="1" spans="1:5">
       <c r="A452" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>40</v>
@@ -11320,10 +11358,10 @@
     </row>
     <row r="453" customHeight="1" spans="1:5">
       <c r="A453" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>40</v>
@@ -11337,10 +11375,10 @@
     </row>
     <row r="454" customHeight="1" spans="1:5">
       <c r="A454" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>40</v>
@@ -11354,10 +11392,10 @@
     </row>
     <row r="455" customHeight="1" spans="1:5">
       <c r="A455" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>40</v>
@@ -11371,10 +11409,10 @@
     </row>
     <row r="456" customHeight="1" spans="1:5">
       <c r="A456" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>40</v>
@@ -11388,10 +11426,10 @@
     </row>
     <row r="457" customHeight="1" spans="1:5">
       <c r="A457" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>40</v>
@@ -11405,10 +11443,10 @@
     </row>
     <row r="458" customHeight="1" spans="1:5">
       <c r="A458" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>40</v>
@@ -11422,10 +11460,10 @@
     </row>
     <row r="459" customHeight="1" spans="1:5">
       <c r="A459" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B459" s="25" t="s">
-        <v>474</v>
+        <v>444</v>
+      </c>
+      <c r="B459" s="27" t="s">
+        <v>476</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>40</v>
@@ -11439,10 +11477,10 @@
     </row>
     <row r="460" customHeight="1" spans="1:5">
       <c r="A460" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B460" s="28" t="s">
-        <v>475</v>
+        <v>444</v>
+      </c>
+      <c r="B460" s="30" t="s">
+        <v>477</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>40</v>
@@ -11456,10 +11494,10 @@
     </row>
     <row r="461" customHeight="1" spans="1:5">
       <c r="A461" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>57</v>
@@ -11473,10 +11511,10 @@
     </row>
     <row r="462" customHeight="1" spans="1:5">
       <c r="A462" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>57</v>
@@ -11490,10 +11528,10 @@
     </row>
     <row r="463" customHeight="1" spans="1:5">
       <c r="A463" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>57</v>
@@ -11507,10 +11545,10 @@
     </row>
     <row r="464" customHeight="1" spans="1:5">
       <c r="A464" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>57</v>
@@ -11524,10 +11562,10 @@
     </row>
     <row r="465" customHeight="1" spans="1:5">
       <c r="A465" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>57</v>
@@ -11541,10 +11579,10 @@
     </row>
     <row r="466" customHeight="1" spans="1:5">
       <c r="A466" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>57</v>
@@ -11558,10 +11596,10 @@
     </row>
     <row r="467" customHeight="1" spans="1:5">
       <c r="A467" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>57</v>
@@ -11575,10 +11613,10 @@
     </row>
     <row r="468" customHeight="1" spans="1:5">
       <c r="A468" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>57</v>
@@ -11592,10 +11630,10 @@
     </row>
     <row r="469" customHeight="1" spans="1:5">
       <c r="A469" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B469" s="11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>57</v>
@@ -11609,10 +11647,10 @@
     </row>
     <row r="470" customHeight="1" spans="1:5">
       <c r="A470" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B470" s="24" t="s">
-        <v>485</v>
+        <v>444</v>
+      </c>
+      <c r="B470" s="26" t="s">
+        <v>487</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>57</v>
@@ -11626,10 +11664,10 @@
     </row>
     <row r="471" customHeight="1" spans="1:5">
       <c r="A471" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B471" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>57</v>
@@ -11642,17 +11680,17 @@
       </c>
     </row>
     <row r="472" customHeight="1" spans="1:5">
-      <c r="A472" s="26"/>
+      <c r="A472" s="28"/>
       <c r="B472" s="18"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
     </row>
     <row r="473" customHeight="1" spans="1:5">
       <c r="A473" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>16</v>
@@ -11666,10 +11704,10 @@
     </row>
     <row r="474" customHeight="1" spans="1:5">
       <c r="A474" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>16</v>
@@ -11683,10 +11721,10 @@
     </row>
     <row r="475" customHeight="1" spans="1:5">
       <c r="A475" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>16</v>
@@ -11700,10 +11738,10 @@
     </row>
     <row r="476" customHeight="1" spans="1:5">
       <c r="A476" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>16</v>
@@ -11717,10 +11755,10 @@
     </row>
     <row r="477" customHeight="1" spans="1:5">
       <c r="A477" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>16</v>
@@ -11734,10 +11772,10 @@
     </row>
     <row r="478" customHeight="1" spans="1:5">
       <c r="A478" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>16</v>
@@ -11751,10 +11789,10 @@
     </row>
     <row r="479" customHeight="1" spans="1:5">
       <c r="A479" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>16</v>
@@ -11768,10 +11806,10 @@
     </row>
     <row r="480" customHeight="1" spans="1:5">
       <c r="A480" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>16</v>
@@ -11785,10 +11823,10 @@
     </row>
     <row r="481" customHeight="1" spans="1:5">
       <c r="A481" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>40</v>
@@ -11802,10 +11840,10 @@
     </row>
     <row r="482" customHeight="1" spans="1:5">
       <c r="A482" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>40</v>
@@ -11819,10 +11857,10 @@
     </row>
     <row r="483" customHeight="1" spans="1:5">
       <c r="A483" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>40</v>
@@ -11836,10 +11874,10 @@
     </row>
     <row r="484" customHeight="1" spans="1:5">
       <c r="A484" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>40</v>
@@ -11853,10 +11891,10 @@
     </row>
     <row r="485" customHeight="1" spans="1:5">
       <c r="A485" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>40</v>
@@ -11870,10 +11908,10 @@
     </row>
     <row r="486" customHeight="1" spans="1:5">
       <c r="A486" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>40</v>
@@ -11887,10 +11925,10 @@
     </row>
     <row r="487" customHeight="1" spans="1:5">
       <c r="A487" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>40</v>
@@ -11904,10 +11942,10 @@
     </row>
     <row r="488" customHeight="1" spans="1:5">
       <c r="A488" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>40</v>
@@ -11921,10 +11959,10 @@
     </row>
     <row r="489" customHeight="1" spans="1:5">
       <c r="A489" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>40</v>
@@ -11938,10 +11976,10 @@
     </row>
     <row r="490" customHeight="1" spans="1:5">
       <c r="A490" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>40</v>
@@ -11955,10 +11993,10 @@
     </row>
     <row r="491" customHeight="1" spans="1:5">
       <c r="A491" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>40</v>
@@ -11972,10 +12010,10 @@
     </row>
     <row r="492" customHeight="1" spans="1:5">
       <c r="A492" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>40</v>
@@ -11989,10 +12027,10 @@
     </row>
     <row r="493" customHeight="1" spans="1:5">
       <c r="A493" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>40</v>
@@ -12006,10 +12044,10 @@
     </row>
     <row r="494" customHeight="1" spans="1:5">
       <c r="A494" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>40</v>
@@ -12023,10 +12061,10 @@
     </row>
     <row r="495" customHeight="1" spans="1:5">
       <c r="A495" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>40</v>
@@ -12040,10 +12078,10 @@
     </row>
     <row r="496" customHeight="1" spans="1:5">
       <c r="A496" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="B496" s="29" t="s">
-        <v>510</v>
+        <v>488</v>
+      </c>
+      <c r="B496" s="31" t="s">
+        <v>512</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>57</v>
@@ -12057,10 +12095,10 @@
     </row>
     <row r="497" customHeight="1" spans="1:5">
       <c r="A497" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="B497" s="24" t="s">
-        <v>511</v>
+        <v>488</v>
+      </c>
+      <c r="B497" s="26" t="s">
+        <v>513</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>57</v>
@@ -12074,10 +12112,10 @@
     </row>
     <row r="498" customHeight="1" spans="1:5">
       <c r="A498" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B498" s="14" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>57</v>
@@ -12091,10 +12129,10 @@
     </row>
     <row r="499" customHeight="1" spans="1:5">
       <c r="A499" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>57</v>
@@ -12107,17 +12145,17 @@
       </c>
     </row>
     <row r="500" customHeight="1" spans="1:5">
-      <c r="A500" s="26"/>
+      <c r="A500" s="28"/>
       <c r="B500" s="18"/>
       <c r="D500" s="7"/>
       <c r="E500" s="7"/>
     </row>
     <row r="501" customHeight="1" spans="1:5">
       <c r="A501" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>16</v>
@@ -12131,10 +12169,10 @@
     </row>
     <row r="502" customHeight="1" spans="1:5">
       <c r="A502" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C502" s="8" t="s">
         <v>16</v>
@@ -12148,10 +12186,10 @@
     </row>
     <row r="503" customHeight="1" spans="1:5">
       <c r="A503" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>16</v>
@@ -12165,10 +12203,10 @@
     </row>
     <row r="504" customHeight="1" spans="1:5">
       <c r="A504" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C504" s="8" t="s">
         <v>16</v>
@@ -12182,10 +12220,10 @@
     </row>
     <row r="505" customHeight="1" spans="1:5">
       <c r="A505" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C505" s="8" t="s">
         <v>16</v>
@@ -12199,10 +12237,10 @@
     </row>
     <row r="506" customHeight="1" spans="1:5">
       <c r="A506" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C506" s="8" t="s">
         <v>16</v>
@@ -12216,10 +12254,10 @@
     </row>
     <row r="507" customHeight="1" spans="1:5">
       <c r="A507" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C507" s="8" t="s">
         <v>16</v>
@@ -12233,10 +12271,10 @@
     </row>
     <row r="508" customHeight="1" spans="1:5">
       <c r="A508" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C508" s="8" t="s">
         <v>16</v>
@@ -12250,10 +12288,10 @@
     </row>
     <row r="509" customHeight="1" spans="1:5">
       <c r="A509" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C509" s="8" t="s">
         <v>16</v>
@@ -12267,10 +12305,10 @@
     </row>
     <row r="510" customHeight="1" spans="1:5">
       <c r="A510" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>16</v>
@@ -12284,10 +12322,10 @@
     </row>
     <row r="511" customHeight="1" spans="1:5">
       <c r="A511" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C511" s="8" t="s">
         <v>16</v>
@@ -12301,10 +12339,10 @@
     </row>
     <row r="512" customHeight="1" spans="1:5">
       <c r="A512" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C512" s="8" t="s">
         <v>16</v>
@@ -12318,10 +12356,10 @@
     </row>
     <row r="513" customHeight="1" spans="1:5">
       <c r="A513" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C513" s="8" t="s">
         <v>40</v>
@@ -12335,10 +12373,10 @@
     </row>
     <row r="514" customHeight="1" spans="1:5">
       <c r="A514" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B514" s="16" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C514" s="8" t="s">
         <v>40</v>
@@ -12352,10 +12390,10 @@
     </row>
     <row r="515" customHeight="1" spans="1:5">
       <c r="A515" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B515" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C515" s="8" t="s">
         <v>40</v>
@@ -12369,10 +12407,10 @@
     </row>
     <row r="516" customHeight="1" spans="1:5">
       <c r="A516" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B516" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C516" s="8" t="s">
         <v>40</v>
@@ -12386,10 +12424,10 @@
     </row>
     <row r="517" customHeight="1" spans="1:5">
       <c r="A517" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B517" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C517" s="8" t="s">
         <v>40</v>
@@ -12403,10 +12441,10 @@
     </row>
     <row r="518" customHeight="1" spans="1:5">
       <c r="A518" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B518" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C518" s="8" t="s">
         <v>40</v>
@@ -12420,10 +12458,10 @@
     </row>
     <row r="519" customHeight="1" spans="1:5">
       <c r="A519" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C519" s="8" t="s">
         <v>40</v>
@@ -12437,10 +12475,10 @@
     </row>
     <row r="520" customHeight="1" spans="1:5">
       <c r="A520" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C520" s="8" t="s">
         <v>40</v>
@@ -12454,10 +12492,10 @@
     </row>
     <row r="521" customHeight="1" spans="1:5">
       <c r="A521" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>40</v>
@@ -12471,10 +12509,10 @@
     </row>
     <row r="522" customHeight="1" spans="1:5">
       <c r="A522" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>40</v>
@@ -12488,10 +12526,10 @@
     </row>
     <row r="523" customHeight="1" spans="1:5">
       <c r="A523" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C523" s="8" t="s">
         <v>40</v>
@@ -12505,10 +12543,10 @@
     </row>
     <row r="524" customHeight="1" spans="1:5">
       <c r="A524" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C524" s="8" t="s">
         <v>57</v>
@@ -12522,10 +12560,10 @@
     </row>
     <row r="525" customHeight="1" spans="1:5">
       <c r="A525" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B525" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C525" s="8" t="s">
         <v>57</v>
@@ -12539,10 +12577,10 @@
     </row>
     <row r="526" customHeight="1" spans="1:5">
       <c r="A526" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B526" s="16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C526" s="8" t="s">
         <v>57</v>
@@ -12556,10 +12594,10 @@
     </row>
     <row r="527" customHeight="1" spans="1:5">
       <c r="A527" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B527" s="16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C527" s="8" t="s">
         <v>57</v>
@@ -12573,10 +12611,10 @@
     </row>
     <row r="528" customHeight="1" spans="1:5">
       <c r="A528" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C528" s="8" t="s">
         <v>57</v>
@@ -12590,10 +12628,10 @@
     </row>
     <row r="529" customHeight="1" spans="1:5">
       <c r="A529" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C529" s="8" t="s">
         <v>57</v>
@@ -12613,10 +12651,10 @@
     </row>
     <row r="531" customHeight="1" spans="1:5">
       <c r="A531" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C531" s="8" t="s">
         <v>16</v>
@@ -12630,10 +12668,10 @@
     </row>
     <row r="532" customHeight="1" spans="1:5">
       <c r="A532" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C532" s="8" t="s">
         <v>16</v>
@@ -12647,10 +12685,10 @@
     </row>
     <row r="533" customHeight="1" spans="1:5">
       <c r="A533" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C533" s="8" t="s">
         <v>16</v>
@@ -12664,10 +12702,10 @@
     </row>
     <row r="534" customHeight="1" spans="1:5">
       <c r="A534" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C534" s="8" t="s">
         <v>16</v>
@@ -12681,10 +12719,10 @@
     </row>
     <row r="535" customHeight="1" spans="1:5">
       <c r="A535" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C535" s="8" t="s">
         <v>16</v>
@@ -12698,10 +12736,10 @@
     </row>
     <row r="536" customHeight="1" spans="1:5">
       <c r="A536" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C536" s="8" t="s">
         <v>16</v>
@@ -12715,10 +12753,10 @@
     </row>
     <row r="537" customHeight="1" spans="1:5">
       <c r="A537" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C537" s="8" t="s">
         <v>16</v>
@@ -12732,10 +12770,10 @@
     </row>
     <row r="538" customHeight="1" spans="1:5">
       <c r="A538" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B538" s="14" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C538" s="8" t="s">
         <v>16</v>
@@ -12749,10 +12787,10 @@
     </row>
     <row r="539" customHeight="1" spans="1:5">
       <c r="A539" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B539" s="13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C539" s="8" t="s">
         <v>16</v>
@@ -12766,10 +12804,10 @@
     </row>
     <row r="540" customHeight="1" spans="1:5">
       <c r="A540" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C540" s="8" t="s">
         <v>16</v>
@@ -12783,10 +12821,10 @@
     </row>
     <row r="541" customHeight="1" spans="1:5">
       <c r="A541" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B541" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C541" s="8" t="s">
         <v>16</v>
@@ -12800,10 +12838,10 @@
     </row>
     <row r="542" customHeight="1" spans="1:5">
       <c r="A542" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B542" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C542" s="8" t="s">
         <v>16</v>
@@ -12817,10 +12855,10 @@
     </row>
     <row r="543" customHeight="1" spans="1:5">
       <c r="A543" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C543" s="8" t="s">
         <v>16</v>
@@ -12834,10 +12872,10 @@
     </row>
     <row r="544" customHeight="1" spans="1:5">
       <c r="A544" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B544" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C544" s="8" t="s">
         <v>16</v>
@@ -12851,10 +12889,10 @@
     </row>
     <row r="545" customHeight="1" spans="1:5">
       <c r="A545" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B545" s="16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C545" s="8" t="s">
         <v>16</v>
@@ -12868,10 +12906,10 @@
     </row>
     <row r="546" customHeight="1" spans="1:5">
       <c r="A546" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C546" s="8" t="s">
         <v>40</v>
@@ -12885,10 +12923,10 @@
     </row>
     <row r="547" customHeight="1" spans="1:5">
       <c r="A547" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C547" s="8" t="s">
         <v>40</v>
@@ -12902,10 +12940,10 @@
     </row>
     <row r="548" customHeight="1" spans="1:5">
       <c r="A548" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C548" s="8" t="s">
         <v>40</v>
@@ -12919,10 +12957,10 @@
     </row>
     <row r="549" customHeight="1" spans="1:5">
       <c r="A549" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C549" s="8" t="s">
         <v>40</v>
@@ -12936,10 +12974,10 @@
     </row>
     <row r="550" customHeight="1" spans="1:5">
       <c r="A550" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C550" s="8" t="s">
         <v>40</v>
@@ -12953,10 +12991,10 @@
     </row>
     <row r="551" customHeight="1" spans="1:5">
       <c r="A551" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B551" s="15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C551" s="8" t="s">
         <v>40</v>
@@ -12970,10 +13008,10 @@
     </row>
     <row r="552" customHeight="1" spans="1:5">
       <c r="A552" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="B552" s="30" t="s">
-        <v>566</v>
+        <v>546</v>
+      </c>
+      <c r="B552" s="32" t="s">
+        <v>568</v>
       </c>
       <c r="C552" s="8" t="s">
         <v>40</v>
@@ -12987,10 +13025,10 @@
     </row>
     <row r="553" customHeight="1" spans="1:5">
       <c r="A553" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C553" s="8" t="s">
         <v>40</v>
@@ -13004,10 +13042,10 @@
     </row>
     <row r="554" customHeight="1" spans="1:5">
       <c r="A554" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C554" s="8" t="s">
         <v>40</v>
@@ -13021,10 +13059,10 @@
     </row>
     <row r="555" customHeight="1" spans="1:5">
       <c r="A555" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C555" s="8" t="s">
         <v>40</v>
@@ -13038,10 +13076,10 @@
     </row>
     <row r="556" customHeight="1" spans="1:5">
       <c r="A556" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>40</v>
@@ -13055,10 +13093,10 @@
     </row>
     <row r="557" customHeight="1" spans="1:5">
       <c r="A557" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C557" s="8" t="s">
         <v>40</v>
@@ -13072,10 +13110,10 @@
     </row>
     <row r="558" customHeight="1" spans="1:5">
       <c r="A558" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C558" s="8" t="s">
         <v>40</v>
@@ -13089,10 +13127,10 @@
     </row>
     <row r="559" customHeight="1" spans="1:5">
       <c r="A559" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C559" s="8" t="s">
         <v>40</v>
@@ -13106,10 +13144,10 @@
     </row>
     <row r="560" customHeight="1" spans="1:5">
       <c r="A560" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C560" s="8" t="s">
         <v>40</v>
@@ -13123,10 +13161,10 @@
     </row>
     <row r="561" customHeight="1" spans="1:5">
       <c r="A561" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C561" s="8" t="s">
         <v>40</v>
@@ -13140,10 +13178,10 @@
     </row>
     <row r="562" customHeight="1" spans="1:5">
       <c r="A562" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C562" s="8" t="s">
         <v>40</v>
@@ -13157,10 +13195,10 @@
     </row>
     <row r="563" customHeight="1" spans="1:5">
       <c r="A563" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C563" s="8" t="s">
         <v>40</v>
@@ -13174,10 +13212,10 @@
     </row>
     <row r="564" customHeight="1" spans="1:5">
       <c r="A564" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C564" s="8" t="s">
         <v>40</v>
@@ -13191,10 +13229,10 @@
     </row>
     <row r="565" customHeight="1" spans="1:5">
       <c r="A565" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C565" s="8" t="s">
         <v>40</v>
@@ -13208,10 +13246,10 @@
     </row>
     <row r="566" customHeight="1" spans="1:5">
       <c r="A566" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C566" s="8" t="s">
         <v>40</v>
@@ -13225,10 +13263,10 @@
     </row>
     <row r="567" customHeight="1" spans="1:5">
       <c r="A567" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C567" s="8" t="s">
         <v>40</v>
@@ -13242,10 +13280,10 @@
     </row>
     <row r="568" customHeight="1" spans="1:5">
       <c r="A568" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C568" s="8" t="s">
         <v>40</v>
@@ -13259,10 +13297,10 @@
     </row>
     <row r="569" customHeight="1" spans="1:5">
       <c r="A569" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C569" s="8" t="s">
         <v>40</v>
@@ -13276,10 +13314,10 @@
     </row>
     <row r="570" customHeight="1" spans="1:5">
       <c r="A570" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C570" s="8" t="s">
         <v>40</v>
@@ -13293,10 +13331,10 @@
     </row>
     <row r="571" customHeight="1" spans="1:5">
       <c r="A571" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C571" s="8" t="s">
         <v>40</v>
@@ -13310,10 +13348,10 @@
     </row>
     <row r="572" customHeight="1" spans="1:5">
       <c r="A572" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C572" s="8" t="s">
         <v>40</v>
@@ -13327,10 +13365,10 @@
     </row>
     <row r="573" customHeight="1" spans="1:5">
       <c r="A573" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C573" s="8" t="s">
         <v>40</v>
@@ -13344,10 +13382,10 @@
     </row>
     <row r="574" customHeight="1" spans="1:5">
       <c r="A574" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C574" s="8" t="s">
         <v>40</v>
@@ -13361,10 +13399,10 @@
     </row>
     <row r="575" customHeight="1" spans="1:5">
       <c r="A575" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C575" s="8" t="s">
         <v>40</v>
@@ -13378,10 +13416,10 @@
     </row>
     <row r="576" customHeight="1" spans="1:5">
       <c r="A576" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C576" s="8" t="s">
         <v>40</v>
@@ -13395,10 +13433,10 @@
     </row>
     <row r="577" customHeight="1" spans="1:5">
       <c r="A577" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B577" s="16" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C577" s="8" t="s">
         <v>40</v>
@@ -13412,10 +13450,10 @@
     </row>
     <row r="578" customHeight="1" spans="1:5">
       <c r="A578" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C578" s="8" t="s">
         <v>40</v>
@@ -13429,10 +13467,10 @@
     </row>
     <row r="579" customHeight="1" spans="1:5">
       <c r="A579" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C579" s="8" t="s">
         <v>40</v>
@@ -13446,10 +13484,10 @@
     </row>
     <row r="580" customHeight="1" spans="1:5">
       <c r="A580" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C580" s="8" t="s">
         <v>40</v>
@@ -13463,10 +13501,10 @@
     </row>
     <row r="581" customHeight="1" spans="1:5">
       <c r="A581" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C581" s="8" t="s">
         <v>40</v>
@@ -13480,10 +13518,10 @@
     </row>
     <row r="582" customHeight="1" spans="1:5">
       <c r="A582" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C582" s="8" t="s">
         <v>57</v>
@@ -13497,10 +13535,10 @@
     </row>
     <row r="583" customHeight="1" spans="1:5">
       <c r="A583" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C583" s="8" t="s">
         <v>57</v>
@@ -13514,10 +13552,10 @@
     </row>
     <row r="584" customHeight="1" spans="1:5">
       <c r="A584" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C584" s="8" t="s">
         <v>57</v>
@@ -13531,10 +13569,10 @@
     </row>
     <row r="585" customHeight="1" spans="1:5">
       <c r="A585" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C585" s="8" t="s">
         <v>57</v>
@@ -13548,10 +13586,10 @@
     </row>
     <row r="586" customHeight="1" spans="1:5">
       <c r="A586" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C586" s="8" t="s">
         <v>57</v>
@@ -13565,10 +13603,10 @@
     </row>
     <row r="587" customHeight="1" spans="1:5">
       <c r="A587" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B587" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C587" s="8" t="s">
         <v>57</v>
@@ -13582,10 +13620,10 @@
     </row>
     <row r="588" customHeight="1" spans="1:5">
       <c r="A588" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C588" s="8" t="s">
         <v>57</v>
@@ -13599,10 +13637,10 @@
     </row>
     <row r="589" customHeight="1" spans="1:5">
       <c r="A589" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B589" s="16" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C589" s="8" t="s">
         <v>57</v>
@@ -13616,10 +13654,10 @@
     </row>
     <row r="590" customHeight="1" spans="1:5">
       <c r="A590" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C590" s="8" t="s">
         <v>57</v>
@@ -13633,10 +13671,10 @@
     </row>
     <row r="591" customHeight="1" spans="1:5">
       <c r="A591" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C591" s="8" t="s">
         <v>57</v>
@@ -13650,10 +13688,10 @@
     </row>
     <row r="592" customHeight="1" spans="1:5">
       <c r="A592" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C592" s="8" t="s">
         <v>57</v>
@@ -13667,10 +13705,10 @@
     </row>
     <row r="593" customHeight="1" spans="1:5">
       <c r="A593" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C593" s="8" t="s">
         <v>57</v>
@@ -13683,17 +13721,17 @@
       </c>
     </row>
     <row r="594" customHeight="1" spans="1:5">
-      <c r="A594" s="26"/>
+      <c r="A594" s="28"/>
       <c r="B594" s="18"/>
       <c r="D594" s="7"/>
       <c r="E594" s="7"/>
     </row>
     <row r="595" customHeight="1" spans="1:5">
       <c r="A595" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C595" s="7" t="s">
         <v>16</v>
@@ -13707,10 +13745,10 @@
     </row>
     <row r="596" customHeight="1" spans="1:5">
       <c r="A596" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C596" s="7" t="s">
         <v>16</v>
@@ -13724,10 +13762,10 @@
     </row>
     <row r="597" customHeight="1" spans="1:5">
       <c r="A597" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C597" s="7" t="s">
         <v>16</v>
@@ -13741,10 +13779,10 @@
     </row>
     <row r="598" customHeight="1" spans="1:5">
       <c r="A598" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C598" s="7" t="s">
         <v>16</v>
@@ -13758,10 +13796,10 @@
     </row>
     <row r="599" customHeight="1" spans="1:5">
       <c r="A599" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C599" s="7" t="s">
         <v>16</v>
@@ -13775,10 +13813,10 @@
     </row>
     <row r="600" customHeight="1" spans="1:5">
       <c r="A600" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B600" s="31" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="B600" s="33" t="s">
+        <v>615</v>
       </c>
       <c r="C600" s="8" t="s">
         <v>40</v>
@@ -13792,10 +13830,10 @@
     </row>
     <row r="601" customHeight="1" spans="1:5">
       <c r="A601" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C601" s="8" t="s">
         <v>40</v>
@@ -13809,10 +13847,10 @@
     </row>
     <row r="602" customHeight="1" spans="1:5">
       <c r="A602" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C602" s="8" t="s">
         <v>40</v>
@@ -13826,10 +13864,10 @@
     </row>
     <row r="603" customHeight="1" spans="1:5">
       <c r="A603" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B603" s="16" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C603" s="8" t="s">
         <v>40</v>
@@ -13843,10 +13881,10 @@
     </row>
     <row r="604" customHeight="1" spans="1:5">
       <c r="A604" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B604" s="32" t="s">
-        <v>617</v>
+        <v>609</v>
+      </c>
+      <c r="B604" s="34" t="s">
+        <v>619</v>
       </c>
       <c r="C604" s="8" t="s">
         <v>40</v>
@@ -13860,10 +13898,10 @@
     </row>
     <row r="605" customHeight="1" spans="1:5">
       <c r="A605" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B605" s="31" t="s">
-        <v>618</v>
+        <v>609</v>
+      </c>
+      <c r="B605" s="33" t="s">
+        <v>620</v>
       </c>
       <c r="C605" s="8" t="s">
         <v>40</v>
@@ -13877,10 +13915,10 @@
     </row>
     <row r="606" customHeight="1" spans="1:5">
       <c r="A606" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C606" s="8" t="s">
         <v>40</v>
@@ -13894,10 +13932,10 @@
     </row>
     <row r="607" customHeight="1" spans="1:5">
       <c r="A607" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C607" s="8" t="s">
         <v>40</v>
@@ -13911,10 +13949,10 @@
     </row>
     <row r="608" customHeight="1" spans="1:5">
       <c r="A608" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C608" s="8" t="s">
         <v>40</v>
@@ -13928,10 +13966,10 @@
     </row>
     <row r="609" customHeight="1" spans="1:5">
       <c r="A609" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C609" s="8" t="s">
         <v>40</v>
@@ -13945,10 +13983,10 @@
     </row>
     <row r="610" customHeight="1" spans="1:5">
       <c r="A610" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C610" s="8" t="s">
         <v>40</v>
@@ -13962,10 +14000,10 @@
     </row>
     <row r="611" customHeight="1" spans="1:5">
       <c r="A611" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C611" s="8" t="s">
         <v>40</v>
@@ -13979,10 +14017,10 @@
     </row>
     <row r="612" customHeight="1" spans="1:5">
       <c r="A612" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C612" s="8" t="s">
         <v>40</v>
@@ -13996,10 +14034,10 @@
     </row>
     <row r="613" customHeight="1" spans="1:5">
       <c r="A613" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C613" s="8" t="s">
         <v>40</v>
@@ -14013,10 +14051,10 @@
     </row>
     <row r="614" customHeight="1" spans="1:5">
       <c r="A614" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C614" s="8" t="s">
         <v>40</v>
@@ -14030,10 +14068,10 @@
     </row>
     <row r="615" customHeight="1" spans="1:5">
       <c r="A615" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C615" s="8" t="s">
         <v>40</v>
@@ -14047,10 +14085,10 @@
     </row>
     <row r="616" customHeight="1" spans="1:5">
       <c r="A616" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C616" s="8" t="s">
         <v>40</v>
@@ -14064,10 +14102,10 @@
     </row>
     <row r="617" customHeight="1" spans="1:5">
       <c r="A617" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C617" s="8" t="s">
         <v>40</v>
@@ -14081,10 +14119,10 @@
     </row>
     <row r="618" customHeight="1" spans="1:5">
       <c r="A618" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C618" s="8" t="s">
         <v>40</v>
@@ -14098,10 +14136,10 @@
     </row>
     <row r="619" customHeight="1" spans="1:5">
       <c r="A619" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C619" s="8" t="s">
         <v>40</v>
@@ -14115,10 +14153,10 @@
     </row>
     <row r="620" customHeight="1" spans="1:5">
       <c r="A620" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B620" s="16" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C620" s="8" t="s">
         <v>40</v>
@@ -14132,10 +14170,10 @@
     </row>
     <row r="621" customHeight="1" spans="1:5">
       <c r="A621" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B621" s="16" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C621" s="8" t="s">
         <v>40</v>
@@ -14149,10 +14187,10 @@
     </row>
     <row r="622" customHeight="1" spans="1:5">
       <c r="A622" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C622" s="8" t="s">
         <v>40</v>
@@ -14166,10 +14204,10 @@
     </row>
     <row r="623" customHeight="1" spans="1:5">
       <c r="A623" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C623" s="8" t="s">
         <v>40</v>
@@ -14183,10 +14221,10 @@
     </row>
     <row r="624" customHeight="1" spans="1:5">
       <c r="A624" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C624" s="8" t="s">
         <v>40</v>
@@ -14200,10 +14238,10 @@
     </row>
     <row r="625" customHeight="1" spans="1:5">
       <c r="A625" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C625" s="8" t="s">
         <v>40</v>
@@ -14217,10 +14255,10 @@
     </row>
     <row r="626" customHeight="1" spans="1:5">
       <c r="A626" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C626" s="8" t="s">
         <v>40</v>
@@ -14234,10 +14272,10 @@
     </row>
     <row r="627" customHeight="1" spans="1:5">
       <c r="A627" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C627" s="8" t="s">
         <v>40</v>
@@ -14251,10 +14289,10 @@
     </row>
     <row r="628" customHeight="1" spans="1:5">
       <c r="A628" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C628" s="8" t="s">
         <v>40</v>
@@ -14268,10 +14306,10 @@
     </row>
     <row r="629" customHeight="1" spans="1:5">
       <c r="A629" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C629" s="8" t="s">
         <v>40</v>
@@ -14285,10 +14323,10 @@
     </row>
     <row r="630" customHeight="1" spans="1:5">
       <c r="A630" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C630" s="8" t="s">
         <v>40</v>
@@ -14302,10 +14340,10 @@
     </row>
     <row r="631" customHeight="1" spans="1:5">
       <c r="A631" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C631" s="8" t="s">
         <v>40</v>
@@ -14319,10 +14357,10 @@
     </row>
     <row r="632" customHeight="1" spans="1:5">
       <c r="A632" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C632" s="8" t="s">
         <v>40</v>
@@ -14336,10 +14374,10 @@
     </row>
     <row r="633" customHeight="1" spans="1:5">
       <c r="A633" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C633" s="8" t="s">
         <v>40</v>
@@ -14353,10 +14391,10 @@
     </row>
     <row r="634" customHeight="1" spans="1:5">
       <c r="A634" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C634" s="8" t="s">
         <v>40</v>
@@ -14370,10 +14408,10 @@
     </row>
     <row r="635" customHeight="1" spans="1:5">
       <c r="A635" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C635" s="8" t="s">
         <v>40</v>
@@ -14387,10 +14425,10 @@
     </row>
     <row r="636" customHeight="1" spans="1:5">
       <c r="A636" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C636" s="8" t="s">
         <v>40</v>
@@ -14404,10 +14442,10 @@
     </row>
     <row r="637" customHeight="1" spans="1:5">
       <c r="A637" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C637" s="8" t="s">
         <v>40</v>
@@ -14421,10 +14459,10 @@
     </row>
     <row r="638" customHeight="1" spans="1:5">
       <c r="A638" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C638" s="8" t="s">
         <v>40</v>
@@ -14438,10 +14476,10 @@
     </row>
     <row r="639" customHeight="1" spans="1:5">
       <c r="A639" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C639" s="8" t="s">
         <v>40</v>
@@ -14455,10 +14493,10 @@
     </row>
     <row r="640" customHeight="1" spans="1:5">
       <c r="A640" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C640" s="8" t="s">
         <v>40</v>
@@ -14472,10 +14510,10 @@
     </row>
     <row r="641" customHeight="1" spans="1:5">
       <c r="A641" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C641" s="8" t="s">
         <v>40</v>
@@ -14489,10 +14527,10 @@
     </row>
     <row r="642" customHeight="1" spans="1:5">
       <c r="A642" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C642" s="8" t="s">
         <v>40</v>
@@ -14506,10 +14544,10 @@
     </row>
     <row r="643" customHeight="1" spans="1:5">
       <c r="A643" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C643" s="8" t="s">
         <v>40</v>
@@ -14523,10 +14561,10 @@
     </row>
     <row r="644" customHeight="1" spans="1:5">
       <c r="A644" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C644" s="8" t="s">
         <v>40</v>
@@ -14540,10 +14578,10 @@
     </row>
     <row r="645" customHeight="1" spans="1:5">
       <c r="A645" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C645" s="8" t="s">
         <v>40</v>
@@ -14557,10 +14595,10 @@
     </row>
     <row r="646" customHeight="1" spans="1:5">
       <c r="A646" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B646" s="16" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C646" s="8" t="s">
         <v>40</v>
@@ -14574,10 +14612,10 @@
     </row>
     <row r="647" customHeight="1" spans="1:5">
       <c r="A647" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B647" s="16" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C647" s="8" t="s">
         <v>40</v>
@@ -14591,10 +14629,10 @@
     </row>
     <row r="648" customHeight="1" spans="1:5">
       <c r="A648" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C648" s="8" t="s">
         <v>40</v>
@@ -14608,10 +14646,10 @@
     </row>
     <row r="649" customHeight="1" spans="1:5">
       <c r="A649" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B649" s="16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C649" s="8" t="s">
         <v>40</v>
@@ -14625,10 +14663,10 @@
     </row>
     <row r="650" customHeight="1" spans="1:5">
       <c r="A650" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B650" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C650" s="8" t="s">
         <v>40</v>
@@ -14642,10 +14680,10 @@
     </row>
     <row r="651" customHeight="1" spans="1:5">
       <c r="A651" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B651" s="16" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C651" s="8" t="s">
         <v>40</v>
@@ -14659,10 +14697,10 @@
     </row>
     <row r="652" customHeight="1" spans="1:5">
       <c r="A652" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B652" s="16" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C652" s="8" t="s">
         <v>40</v>
@@ -14676,10 +14714,10 @@
     </row>
     <row r="653" customHeight="1" spans="1:5">
       <c r="A653" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B653" s="16" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C653" s="8" t="s">
         <v>40</v>
@@ -14693,10 +14731,10 @@
     </row>
     <row r="654" customHeight="1" spans="1:5">
       <c r="A654" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B654" s="16" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C654" s="8" t="s">
         <v>40</v>
@@ -14710,10 +14748,10 @@
     </row>
     <row r="655" customHeight="1" spans="1:5">
       <c r="A655" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B655" s="16" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C655" s="8" t="s">
         <v>40</v>
@@ -14727,10 +14765,10 @@
     </row>
     <row r="656" customHeight="1" spans="1:5">
       <c r="A656" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B656" s="16" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C656" s="8" t="s">
         <v>40</v>
@@ -14744,10 +14782,10 @@
     </row>
     <row r="657" customHeight="1" spans="1:5">
       <c r="A657" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B657" s="16" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C657" s="8" t="s">
         <v>40</v>
@@ -14761,10 +14799,10 @@
     </row>
     <row r="658" customHeight="1" spans="1:5">
       <c r="A658" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B658" s="16" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C658" s="8" t="s">
         <v>40</v>
@@ -14778,10 +14816,10 @@
     </row>
     <row r="659" customHeight="1" spans="1:5">
       <c r="A659" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B659" s="16" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C659" s="8" t="s">
         <v>40</v>
@@ -14795,10 +14833,10 @@
     </row>
     <row r="660" customHeight="1" spans="1:5">
       <c r="A660" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B660" s="16" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C660" s="8" t="s">
         <v>40</v>
@@ -14812,10 +14850,10 @@
     </row>
     <row r="661" customHeight="1" spans="1:5">
       <c r="A661" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B661" s="16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C661" s="8" t="s">
         <v>40</v>
@@ -14829,10 +14867,10 @@
     </row>
     <row r="662" customHeight="1" spans="1:5">
       <c r="A662" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B662" s="16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C662" s="8" t="s">
         <v>40</v>
@@ -14846,10 +14884,10 @@
     </row>
     <row r="663" customHeight="1" spans="1:5">
       <c r="A663" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B663" s="16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C663" s="8" t="s">
         <v>40</v>
@@ -14863,10 +14901,10 @@
     </row>
     <row r="664" customHeight="1" spans="1:5">
       <c r="A664" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C664" s="8" t="s">
         <v>40</v>
@@ -14880,10 +14918,10 @@
     </row>
     <row r="665" customHeight="1" spans="1:5">
       <c r="A665" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C665" s="8" t="s">
         <v>40</v>
@@ -14897,10 +14935,10 @@
     </row>
     <row r="666" customHeight="1" spans="1:5">
       <c r="A666" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C666" s="8" t="s">
         <v>40</v>
@@ -14914,10 +14952,10 @@
     </row>
     <row r="667" customHeight="1" spans="1:5">
       <c r="A667" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C667" s="8" t="s">
         <v>40</v>
@@ -14931,10 +14969,10 @@
     </row>
     <row r="668" customHeight="1" spans="1:5">
       <c r="A668" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C668" s="8" t="s">
         <v>40</v>
@@ -14948,10 +14986,10 @@
     </row>
     <row r="669" customHeight="1" spans="1:5">
       <c r="A669" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C669" s="8" t="s">
         <v>40</v>
@@ -14965,10 +15003,10 @@
     </row>
     <row r="670" customHeight="1" spans="1:5">
       <c r="A670" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C670" s="8" t="s">
         <v>40</v>
@@ -14982,10 +15020,10 @@
     </row>
     <row r="671" customHeight="1" spans="1:5">
       <c r="A671" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C671" s="8" t="s">
         <v>40</v>
@@ -14999,10 +15037,10 @@
     </row>
     <row r="672" customHeight="1" spans="1:5">
       <c r="A672" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C672" s="8" t="s">
         <v>40</v>
@@ -15016,10 +15054,10 @@
     </row>
     <row r="673" customHeight="1" spans="1:5">
       <c r="A673" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C673" s="8" t="s">
         <v>40</v>
@@ -15033,10 +15071,10 @@
     </row>
     <row r="674" customHeight="1" spans="1:5">
       <c r="A674" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C674" s="8" t="s">
         <v>40</v>
@@ -15050,10 +15088,10 @@
     </row>
     <row r="675" customHeight="1" spans="1:5">
       <c r="A675" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C675" s="8" t="s">
         <v>40</v>
@@ -15067,10 +15105,10 @@
     </row>
     <row r="676" customHeight="1" spans="1:5">
       <c r="A676" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C676" s="8" t="s">
         <v>40</v>
@@ -15084,10 +15122,10 @@
     </row>
     <row r="677" customHeight="1" spans="1:5">
       <c r="A677" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C677" s="8" t="s">
         <v>40</v>
@@ -15101,10 +15139,10 @@
     </row>
     <row r="678" customHeight="1" spans="1:5">
       <c r="A678" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C678" s="8" t="s">
         <v>40</v>
@@ -15118,10 +15156,10 @@
     </row>
     <row r="679" customHeight="1" spans="1:5">
       <c r="A679" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C679" s="8" t="s">
         <v>40</v>
@@ -15135,10 +15173,10 @@
     </row>
     <row r="680" customHeight="1" spans="1:5">
       <c r="A680" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C680" s="8" t="s">
         <v>40</v>
@@ -15152,10 +15190,10 @@
     </row>
     <row r="681" customHeight="1" spans="1:5">
       <c r="A681" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C681" s="8" t="s">
         <v>40</v>
@@ -15169,10 +15207,10 @@
     </row>
     <row r="682" customHeight="1" spans="1:5">
       <c r="A682" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C682" s="8" t="s">
         <v>40</v>
@@ -15186,10 +15224,10 @@
     </row>
     <row r="683" customHeight="1" spans="1:5">
       <c r="A683" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C683" s="8" t="s">
         <v>40</v>
@@ -15203,10 +15241,10 @@
     </row>
     <row r="684" customHeight="1" spans="1:5">
       <c r="A684" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C684" s="8" t="s">
         <v>40</v>
@@ -15220,10 +15258,10 @@
     </row>
     <row r="685" customHeight="1" spans="1:5">
       <c r="A685" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C685" s="8" t="s">
         <v>40</v>
@@ -15237,10 +15275,10 @@
     </row>
     <row r="686" customHeight="1" spans="1:5">
       <c r="A686" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B686" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C686" s="8" t="s">
         <v>40</v>
@@ -15254,10 +15292,10 @@
     </row>
     <row r="687" customHeight="1" spans="1:5">
       <c r="A687" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C687" s="8" t="s">
         <v>40</v>
@@ -15271,10 +15309,10 @@
     </row>
     <row r="688" customHeight="1" spans="1:5">
       <c r="A688" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C688" s="8" t="s">
         <v>40</v>
@@ -15288,10 +15326,10 @@
     </row>
     <row r="689" customHeight="1" spans="1:5">
       <c r="A689" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C689" s="8" t="s">
         <v>40</v>
@@ -15305,10 +15343,10 @@
     </row>
     <row r="690" customHeight="1" spans="1:5">
       <c r="A690" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B690" s="12" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C690" s="8" t="s">
         <v>40</v>
@@ -15322,10 +15360,10 @@
     </row>
     <row r="691" customHeight="1" spans="1:5">
       <c r="A691" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B691" s="25" t="s">
-        <v>704</v>
+        <v>609</v>
+      </c>
+      <c r="B691" s="27" t="s">
+        <v>706</v>
       </c>
       <c r="C691" s="8" t="s">
         <v>40</v>
@@ -15339,10 +15377,10 @@
     </row>
     <row r="692" customHeight="1" spans="1:5">
       <c r="A692" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B692" s="24" t="s">
-        <v>705</v>
+        <v>609</v>
+      </c>
+      <c r="B692" s="26" t="s">
+        <v>707</v>
       </c>
       <c r="C692" s="8" t="s">
         <v>40</v>
@@ -15356,10 +15394,10 @@
     </row>
     <row r="693" customHeight="1" spans="1:5">
       <c r="A693" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B693" s="13" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C693" s="8" t="s">
         <v>40</v>
@@ -15373,10 +15411,10 @@
     </row>
     <row r="694" customHeight="1" spans="1:5">
       <c r="A694" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B694" s="25" t="s">
-        <v>707</v>
+        <v>609</v>
+      </c>
+      <c r="B694" s="27" t="s">
+        <v>709</v>
       </c>
       <c r="C694" s="8" t="s">
         <v>40</v>
@@ -15390,10 +15428,10 @@
     </row>
     <row r="695" customHeight="1" spans="1:5">
       <c r="A695" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B695" s="25" t="s">
-        <v>708</v>
+        <v>609</v>
+      </c>
+      <c r="B695" s="27" t="s">
+        <v>710</v>
       </c>
       <c r="C695" s="8" t="s">
         <v>40</v>
@@ -15407,10 +15445,10 @@
     </row>
     <row r="696" customHeight="1" spans="1:5">
       <c r="A696" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C696" s="8" t="s">
         <v>40</v>
@@ -15424,10 +15462,10 @@
     </row>
     <row r="697" customHeight="1" spans="1:5">
       <c r="A697" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C697" s="8" t="s">
         <v>57</v>
@@ -15441,10 +15479,10 @@
     </row>
     <row r="698" customHeight="1" spans="1:5">
       <c r="A698" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C698" s="8" t="s">
         <v>57</v>
@@ -15458,10 +15496,10 @@
     </row>
     <row r="699" customHeight="1" spans="1:5">
       <c r="A699" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C699" s="8" t="s">
         <v>57</v>
@@ -15475,10 +15513,10 @@
     </row>
     <row r="700" customHeight="1" spans="1:5">
       <c r="A700" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C700" s="8" t="s">
         <v>57</v>
@@ -15492,10 +15530,10 @@
     </row>
     <row r="701" customHeight="1" spans="1:5">
       <c r="A701" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C701" s="8" t="s">
         <v>57</v>
@@ -15509,10 +15547,10 @@
     </row>
     <row r="702" customHeight="1" spans="1:5">
       <c r="A702" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C702" s="8" t="s">
         <v>57</v>
@@ -15526,10 +15564,10 @@
     </row>
     <row r="703" customHeight="1" spans="1:5">
       <c r="A703" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C703" s="8" t="s">
         <v>57</v>
@@ -15543,10 +15581,10 @@
     </row>
     <row r="704" customHeight="1" spans="1:5">
       <c r="A704" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C704" s="8" t="s">
         <v>57</v>
@@ -15560,10 +15598,10 @@
     </row>
     <row r="705" customHeight="1" spans="1:5">
       <c r="A705" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C705" s="8" t="s">
         <v>57</v>
@@ -15577,10 +15615,10 @@
     </row>
     <row r="706" customHeight="1" spans="1:5">
       <c r="A706" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C706" s="8" t="s">
         <v>57</v>
@@ -15594,10 +15632,10 @@
     </row>
     <row r="707" customHeight="1" spans="1:5">
       <c r="A707" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C707" s="8" t="s">
         <v>57</v>
@@ -15611,10 +15649,10 @@
     </row>
     <row r="708" customHeight="1" spans="1:5">
       <c r="A708" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C708" s="8" t="s">
         <v>57</v>
@@ -15628,10 +15666,10 @@
     </row>
     <row r="709" customHeight="1" spans="1:5">
       <c r="A709" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C709" s="8" t="s">
         <v>57</v>
@@ -15645,10 +15683,10 @@
     </row>
     <row r="710" customHeight="1" spans="1:5">
       <c r="A710" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C710" s="8" t="s">
         <v>57</v>
@@ -15662,10 +15700,10 @@
     </row>
     <row r="711" customHeight="1" spans="1:5">
       <c r="A711" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C711" s="8" t="s">
         <v>57</v>
@@ -15679,10 +15717,10 @@
     </row>
     <row r="712" customHeight="1" spans="1:5">
       <c r="A712" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C712" s="8" t="s">
         <v>57</v>
@@ -15696,10 +15734,10 @@
     </row>
     <row r="713" customHeight="1" spans="1:5">
       <c r="A713" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C713" s="8" t="s">
         <v>57</v>
@@ -15713,10 +15751,10 @@
     </row>
     <row r="714" customHeight="1" spans="1:5">
       <c r="A714" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B714" s="24" t="s">
-        <v>727</v>
+        <v>609</v>
+      </c>
+      <c r="B714" s="26" t="s">
+        <v>729</v>
       </c>
       <c r="C714" s="8" t="s">
         <v>57</v>
@@ -15730,10 +15768,10 @@
     </row>
     <row r="715" customHeight="1" spans="1:5">
       <c r="A715" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C715" s="8" t="s">
         <v>57</v>
@@ -15747,10 +15785,10 @@
     </row>
     <row r="716" customHeight="1" spans="1:5">
       <c r="A716" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B716" s="13" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C716" s="8" t="s">
         <v>57</v>
@@ -15764,10 +15802,10 @@
     </row>
     <row r="717" customHeight="1" spans="1:5">
       <c r="A717" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B717" s="13" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C717" s="8" t="s">
         <v>57</v>
@@ -15786,10 +15824,10 @@
     </row>
     <row r="719" customHeight="1" spans="1:5">
       <c r="A719" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C719" s="7" t="s">
         <v>16</v>
@@ -15803,10 +15841,10 @@
     </row>
     <row r="720" customHeight="1" spans="1:5">
       <c r="A720" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C720" s="7" t="s">
         <v>16</v>
@@ -15820,10 +15858,10 @@
     </row>
     <row r="721" customHeight="1" spans="1:5">
       <c r="A721" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C721" s="7" t="s">
         <v>40</v>
@@ -15837,10 +15875,10 @@
     </row>
     <row r="722" customHeight="1" spans="1:5">
       <c r="A722" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C722" s="7" t="s">
         <v>40</v>
@@ -15854,10 +15892,10 @@
     </row>
     <row r="723" customHeight="1" spans="1:5">
       <c r="A723" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C723" s="7" t="s">
         <v>40</v>
@@ -15871,10 +15909,10 @@
     </row>
     <row r="724" customHeight="1" spans="1:5">
       <c r="A724" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C724" s="7" t="s">
         <v>40</v>
@@ -15888,10 +15926,10 @@
     </row>
     <row r="725" customHeight="1" spans="1:5">
       <c r="A725" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C725" s="7" t="s">
         <v>57</v>
@@ -15905,10 +15943,10 @@
     </row>
     <row r="726" customHeight="1" spans="1:5">
       <c r="A726" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C726" s="7" t="s">
         <v>57</v>
@@ -15922,10 +15960,10 @@
     </row>
     <row r="727" customHeight="1" spans="1:5">
       <c r="A727" s="22" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C727" s="7" t="s">
         <v>57</v>
@@ -15938,16 +15976,16 @@
       </c>
     </row>
     <row r="728" customHeight="1" spans="1:5">
-      <c r="A728" s="26"/>
+      <c r="A728" s="28"/>
       <c r="D728" s="7"/>
       <c r="E728" s="7"/>
     </row>
     <row r="729" customHeight="1" spans="1:5">
       <c r="A729" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C729" s="7" t="s">
         <v>16</v>
@@ -15961,10 +15999,10 @@
     </row>
     <row r="730" customHeight="1" spans="1:5">
       <c r="A730" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C730" s="7" t="s">
         <v>40</v>
@@ -15978,10 +16016,10 @@
     </row>
     <row r="731" customHeight="1" spans="1:5">
       <c r="A731" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C731" s="7" t="s">
         <v>40</v>
@@ -15995,10 +16033,10 @@
     </row>
     <row r="732" customHeight="1" spans="1:5">
       <c r="A732" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C732" s="7" t="s">
         <v>40</v>
@@ -16012,10 +16050,10 @@
     </row>
     <row r="733" customHeight="1" spans="1:5">
       <c r="A733" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C733" s="7" t="s">
         <v>40</v>
@@ -16029,10 +16067,10 @@
     </row>
     <row r="734" customHeight="1" spans="1:5">
       <c r="A734" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C734" s="7" t="s">
         <v>40</v>
@@ -16046,10 +16084,10 @@
     </row>
     <row r="735" customHeight="1" spans="1:5">
       <c r="A735" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C735" s="7" t="s">
         <v>40</v>
@@ -16063,10 +16101,10 @@
     </row>
     <row r="736" customHeight="1" spans="1:5">
       <c r="A736" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C736" s="7" t="s">
         <v>40</v>
@@ -16080,10 +16118,10 @@
     </row>
     <row r="737" customHeight="1" spans="1:5">
       <c r="A737" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C737" s="7" t="s">
         <v>40</v>
@@ -16097,10 +16135,10 @@
     </row>
     <row r="738" customHeight="1" spans="1:5">
       <c r="A738" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C738" s="7" t="s">
         <v>57</v>
@@ -16114,10 +16152,10 @@
     </row>
     <row r="739" customHeight="1" spans="1:5">
       <c r="A739" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C739" s="7" t="s">
         <v>57</v>
@@ -16131,10 +16169,10 @@
     </row>
     <row r="740" customHeight="1" spans="1:5">
       <c r="A740" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C740" s="7" t="s">
         <v>57</v>
@@ -16148,10 +16186,10 @@
     </row>
     <row r="741" customHeight="1" spans="1:5">
       <c r="A741" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C741" s="7" t="s">
         <v>57</v>
@@ -16165,10 +16203,10 @@
     </row>
     <row r="742" customHeight="1" spans="1:5">
       <c r="A742" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C742" s="7" t="s">
         <v>57</v>
@@ -16181,16 +16219,16 @@
       </c>
     </row>
     <row r="743" customHeight="1" spans="1:5">
-      <c r="A743" s="26"/>
+      <c r="A743" s="28"/>
       <c r="D743" s="7"/>
       <c r="E743" s="7"/>
     </row>
     <row r="744" customHeight="1" spans="1:5">
       <c r="A744" s="22" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B744" s="14" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C744" s="8" t="s">
         <v>40</v>
@@ -16204,10 +16242,10 @@
     </row>
     <row r="745" customHeight="1" spans="1:5">
       <c r="A745" s="22" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B745" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C745" s="8" t="s">
         <v>40</v>
@@ -16221,10 +16259,10 @@
     </row>
     <row r="746" customHeight="1" spans="1:5">
       <c r="A746" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="B746" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
+      </c>
+      <c r="B746" s="30" t="s">
+        <v>761</v>
       </c>
       <c r="C746" s="8" t="s">
         <v>57</v>
@@ -16238,10 +16276,10 @@
     </row>
     <row r="747" customHeight="1" spans="1:5">
       <c r="A747" s="22" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B747" s="14" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C747" s="8" t="s">
         <v>57</v>
